--- a/Employee_Reports35/Tharanga Pradeep Pathirannehelage Q0132.xlsx
+++ b/Employee_Reports35/Tharanga Pradeep Pathirannehelage Q0132.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1553,11 +1553,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1602,11 +1602,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1688,11 +1688,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1737,11 +1737,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1786,11 +1786,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1921,11 +1921,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1970,11 +1970,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2019,11 +2019,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2068,11 +2068,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2117,11 +2117,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2166,11 +2166,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2203,11 +2203,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">

--- a/Employee_Reports35/Tharanga Pradeep Pathirannehelage Q0132.xlsx
+++ b/Employee_Reports35/Tharanga Pradeep Pathirannehelage Q0132.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1553,11 +1553,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1602,11 +1602,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1688,11 +1688,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1737,11 +1737,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1786,11 +1786,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1921,11 +1921,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1970,11 +1970,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2019,11 +2019,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2068,11 +2068,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2117,11 +2117,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2166,11 +2166,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2203,11 +2203,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
